--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/苹果采购合同需求.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/苹果采购合同需求.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="25240" yWindow="460" windowWidth="24360" windowHeight="26720"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -645,13 +640,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(&quot;CN¥&quot;* #,##0.00_);_(&quot;CN¥&quot;* \(#,##0.00\);_(&quot;CN¥&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +686,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -727,12 +723,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,6 +744,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1046,10 +1045,10 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
@@ -1059,7 +1058,7 @@
     <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1095,10 +1094,10 @@
       </c>
       <c r="F2" s="5">
         <f>SUM(F3:F15)</f>
-        <v>416879</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>446080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -1109,20 +1108,20 @@
         <v>148</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
         <v>29201</v>
       </c>
       <c r="F3" s="3">
         <f>E3*D3</f>
-        <v>146005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>175206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -1143,10 +1142,10 @@
         <v>143472</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>159</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>163</v>
       </c>
@@ -1203,10 +1202,10 @@
         <v>24130</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1227,10 +1226,10 @@
         <v>39942</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -1251,10 +1250,10 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>156</v>
       </c>
@@ -1293,7 +1292,7 @@
       <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
@@ -1306,7 +1305,7 @@
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1351,7 +1350,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1501,7 +1500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>9</v>
       </c>
@@ -1735,7 +1734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1978,7 +1977,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>13</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>12</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>13</v>
       </c>
@@ -2456,7 +2455,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>15</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>17</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>18</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>20</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>21</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>22</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>23</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
         <v>92</v>
       </c>
@@ -2804,7 +2803,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
         <v>93</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
         <v>94</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
         <v>96</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
         <v>97</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
         <v>98</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="E63" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>2046449.97</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2975,7 +2974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>25</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
         <v>136</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
         <v>136</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
         <v>107</v>
       </c>
@@ -3137,7 +3136,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
         <v>138</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
         <v>122</v>
       </c>
@@ -3182,7 +3181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
         <v>90</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
         <v>122</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
         <v>122</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
         <v>118</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="E80" s="2" t="s">
         <v>22</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>734085.11</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9">
       <c r="B82" t="s">
         <v>90</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9">
       <c r="B83" t="s">
         <v>121</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9">
       <c r="F84" s="3">
         <f>SUM(F82:F83)</f>
         <v>0</v>
@@ -3345,7 +3344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,7 +3357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
